--- a/data/trans_orig/PER_CONT_AIRE-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/PER_CONT_AIRE-Estudios-trans_orig.xlsx
@@ -6004,12 +6004,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>1105</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -6019,12 +6019,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,3%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">

--- a/data/trans_orig/PER_CONT_AIRE-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/PER_CONT_AIRE-Estudios-trans_orig.xlsx
@@ -545,7 +545,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Percepción contaminación atmosférica en País Vasco</t>
+          <t>Percepción contaminación atmosférica en País Vasco (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -2608,7 +2608,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Percepción contaminación atmosférica en Andalucia</t>
+          <t>Percepción contaminación atmosférica en Andalucia (tasa de respuesta: 99,04%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -4671,7 +4671,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Percepción contaminación atmosférica en C.Valenciana</t>
+          <t>Percepción contaminación atmosférica en C.Valenciana (tasa de respuesta: 93,59%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/PER_CONT_AIRE-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/PER_CONT_AIRE-Estudios-trans_orig.xlsx
@@ -735,32 +735,32 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>84835</t>
+          <t>77057</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>82259</t>
+          <t>74808</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>86822</t>
+          <t>78721</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>93,02%</t>
+          <t>93,15%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>90,2%</t>
+          <t>90,43%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>95,2%</t>
+          <t>95,16%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -770,32 +770,32 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>119051</t>
+          <t>110622</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>115997</t>
+          <t>108311</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>121315</t>
+          <t>112726</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>93,07%</t>
+          <t>93,84%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>90,69%</t>
+          <t>91,87%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>94,84%</t>
+          <t>95,62%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -805,32 +805,32 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>203886</t>
+          <t>187679</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>200274</t>
+          <t>184849</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>207152</t>
+          <t>190422</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>93,05%</t>
+          <t>93,55%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>91,4%</t>
+          <t>92,14%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>94,54%</t>
+          <t>94,92%</t>
         </is>
       </c>
     </row>
@@ -848,32 +848,32 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4969</t>
+          <t>4542</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3204</t>
+          <t>3035</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>7283</t>
+          <t>6744</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>5,45%</t>
+          <t>5,49%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,51%</t>
+          <t>3,67%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>7,99%</t>
+          <t>8,15%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -883,32 +883,32 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>6966</t>
+          <t>5790</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>4884</t>
+          <t>3984</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>9710</t>
+          <t>7902</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>5,45%</t>
+          <t>4,91%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>3,82%</t>
+          <t>3,38%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>7,59%</t>
+          <t>6,7%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -918,32 +918,32 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>11935</t>
+          <t>10332</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>9132</t>
+          <t>7928</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>15487</t>
+          <t>12948</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>5,45%</t>
+          <t>5,15%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>4,17%</t>
+          <t>3,95%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>7,07%</t>
+          <t>6,45%</t>
         </is>
       </c>
     </row>
@@ -961,32 +961,32 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1392</t>
+          <t>1125</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>576</t>
+          <t>432</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2786</t>
+          <t>2321</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>1,53%</t>
+          <t>1,36%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,63%</t>
+          <t>0,52%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>3,06%</t>
+          <t>2,81%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -996,32 +996,32 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>1895</t>
+          <t>1478</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>992</t>
+          <t>734</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>3452</t>
+          <t>2877</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>1,48%</t>
+          <t>1,25%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>0,78%</t>
+          <t>0,62%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>2,7%</t>
+          <t>2,44%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -1031,32 +1031,32 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>3288</t>
+          <t>2603</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>2029</t>
+          <t>1585</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>5094</t>
+          <t>4022</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
         <is>
-          <t>1,5%</t>
+          <t>1,3%</t>
         </is>
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>0,93%</t>
+          <t>0,79%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>2,32%</t>
+          <t>2,0%</t>
         </is>
       </c>
     </row>
@@ -1074,17 +1074,17 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>91197</t>
+          <t>82724</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>91197</t>
+          <t>82724</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>91197</t>
+          <t>82724</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -1109,17 +1109,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>127912</t>
+          <t>117890</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>127912</t>
+          <t>117890</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>127912</t>
+          <t>117890</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>219109</t>
+          <t>200614</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>219109</t>
+          <t>200614</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>219109</t>
+          <t>200614</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -1191,102 +1191,102 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>426927</t>
+          <t>433203</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>421189</t>
+          <t>428730</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>431494</t>
+          <t>438462</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>92,52%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>91,57%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>93,65%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>2343</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>418422</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>413641</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>423403</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>93,21%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>92,14%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>94,32%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>4803</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>851624</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>844775</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>858727</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>92,86%</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
           <t>92,11%</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>90,87%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>93,09%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>2343</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>406276</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>401284</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>411144</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>92,47%</t>
-        </is>
-      </c>
-      <c r="O8" s="2" t="inlineStr">
-        <is>
-          <t>91,34%</t>
-        </is>
-      </c>
-      <c r="P8" s="2" t="inlineStr">
-        <is>
-          <t>93,58%</t>
-        </is>
-      </c>
-      <c r="Q8" s="2" t="inlineStr">
-        <is>
-          <t>4803</t>
-        </is>
-      </c>
-      <c r="R8" s="2" t="inlineStr">
-        <is>
-          <t>833203</t>
-        </is>
-      </c>
-      <c r="S8" s="2" t="inlineStr">
-        <is>
-          <t>824882</t>
-        </is>
-      </c>
-      <c r="T8" s="2" t="inlineStr">
-        <is>
-          <t>840256</t>
-        </is>
-      </c>
-      <c r="U8" s="2" t="inlineStr">
-        <is>
-          <t>92,29%</t>
-        </is>
-      </c>
-      <c r="V8" s="2" t="inlineStr">
-        <is>
-          <t>91,36%</t>
-        </is>
-      </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>93,07%</t>
+          <t>93,63%</t>
         </is>
       </c>
     </row>
@@ -1304,32 +1304,32 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>29971</t>
+          <t>28882</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>25636</t>
+          <t>24299</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>34906</t>
+          <t>33714</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>6,47%</t>
+          <t>6,17%</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,53%</t>
+          <t>5,19%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>7,53%</t>
+          <t>7,2%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1339,32 +1339,32 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>25872</t>
+          <t>23759</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>21650</t>
+          <t>19263</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>30644</t>
+          <t>28290</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>5,89%</t>
+          <t>5,29%</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>4,93%</t>
+          <t>4,29%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>6,97%</t>
+          <t>6,3%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -1374,32 +1374,32 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>55842</t>
+          <t>52641</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>49519</t>
+          <t>46460</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>63092</t>
+          <t>58961</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
         <is>
-          <t>6,19%</t>
+          <t>5,74%</t>
         </is>
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>5,48%</t>
+          <t>5,07%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>6,99%</t>
+          <t>6,43%</t>
         </is>
       </c>
     </row>
@@ -1417,32 +1417,32 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>6610</t>
+          <t>6130</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>4489</t>
+          <t>4331</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>9685</t>
+          <t>8516</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>1,43%</t>
+          <t>1,31%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,97%</t>
+          <t>0,92%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>2,09%</t>
+          <t>1,82%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1452,32 +1452,32 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>7202</t>
+          <t>6743</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>4953</t>
+          <t>4885</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>9915</t>
+          <t>9466</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>1,64%</t>
+          <t>1,5%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>1,13%</t>
+          <t>1,09%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>2,26%</t>
+          <t>2,11%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1487,32 +1487,32 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>13812</t>
+          <t>12873</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>10814</t>
+          <t>10193</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>17346</t>
+          <t>16154</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>1,53%</t>
+          <t>1,4%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>1,2%</t>
+          <t>1,11%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>1,92%</t>
+          <t>1,76%</t>
         </is>
       </c>
     </row>
@@ -1530,17 +1530,17 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>463507</t>
+          <t>468215</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>463507</t>
+          <t>468215</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>463507</t>
+          <t>468215</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1565,17 +1565,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>439350</t>
+          <t>448923</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>439350</t>
+          <t>448923</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>439350</t>
+          <t>448923</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1600,17 +1600,17 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>902857</t>
+          <t>917137</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>902857</t>
+          <t>917137</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>902857</t>
+          <t>917137</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -1647,32 +1647,32 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>143087</t>
+          <t>171204</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>139998</t>
+          <t>167735</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>145798</t>
+          <t>174301</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>92,16%</t>
+          <t>92,75%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>90,17%</t>
+          <t>90,87%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>93,91%</t>
+          <t>94,43%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -1682,32 +1682,32 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>183836</t>
+          <t>224018</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>179844</t>
+          <t>219684</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>186876</t>
+          <t>227500</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>91,98%</t>
+          <t>92,78%</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>89,98%</t>
+          <t>90,98%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>93,5%</t>
+          <t>94,22%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -1717,32 +1717,32 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>326923</t>
+          <t>395222</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>321750</t>
+          <t>389751</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>331099</t>
+          <t>399636</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t>92,06%</t>
+          <t>92,77%</t>
         </is>
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>90,6%</t>
+          <t>91,48%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>93,23%</t>
+          <t>93,8%</t>
         </is>
       </c>
     </row>
@@ -1760,32 +1760,32 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>10339</t>
+          <t>11517</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>7861</t>
+          <t>8471</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>13109</t>
+          <t>15066</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>6,66%</t>
+          <t>6,24%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>5,06%</t>
+          <t>4,59%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>8,44%</t>
+          <t>8,16%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1795,32 +1795,32 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>13873</t>
+          <t>15485</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>11100</t>
+          <t>12467</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>17741</t>
+          <t>19694</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>6,94%</t>
+          <t>6,41%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>5,55%</t>
+          <t>5,16%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>8,88%</t>
+          <t>8,16%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -1830,32 +1830,32 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>24212</t>
+          <t>27002</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>20364</t>
+          <t>22518</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>28857</t>
+          <t>32357</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>6,82%</t>
+          <t>6,34%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>5,73%</t>
+          <t>5,29%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>8,13%</t>
+          <t>7,59%</t>
         </is>
       </c>
     </row>
@@ -1873,32 +1873,32 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>1829</t>
+          <t>1863</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>964</t>
+          <t>1020</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>3512</t>
+          <t>3474</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>1,18%</t>
+          <t>1,01%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,62%</t>
+          <t>0,55%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>2,26%</t>
+          <t>1,88%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1908,32 +1908,32 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>2167</t>
+          <t>1952</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>994</t>
+          <t>1040</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>3924</t>
+          <t>3809</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>1,08%</t>
+          <t>0,81%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>0,5%</t>
+          <t>0,43%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>1,96%</t>
+          <t>1,58%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1943,32 +1943,32 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>3996</t>
+          <t>3815</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>2514</t>
+          <t>2406</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>6253</t>
+          <t>5881</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>1,13%</t>
+          <t>0,9%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>0,71%</t>
+          <t>0,56%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>1,76%</t>
+          <t>1,38%</t>
         </is>
       </c>
     </row>
@@ -1986,17 +1986,17 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>155255</t>
+          <t>184584</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>155255</t>
+          <t>184584</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>155255</t>
+          <t>184584</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2021,17 +2021,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>199876</t>
+          <t>241455</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>199876</t>
+          <t>241455</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>199876</t>
+          <t>241455</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2056,17 +2056,17 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>355131</t>
+          <t>426039</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>355131</t>
+          <t>426039</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>355131</t>
+          <t>426039</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2103,32 +2103,32 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>654849</t>
+          <t>681464</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>647012</t>
+          <t>674840</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>660985</t>
+          <t>687372</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>92,24%</t>
+          <t>92,65%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>91,13%</t>
+          <t>91,75%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>93,1%</t>
+          <t>93,45%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -2138,32 +2138,32 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>709163</t>
+          <t>753062</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>701933</t>
+          <t>746489</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>715578</t>
+          <t>758987</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>92,44%</t>
+          <t>93,17%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>91,5%</t>
+          <t>92,36%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>93,28%</t>
+          <t>93,9%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -2173,32 +2173,32 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>1364012</t>
+          <t>1434526</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>1353473</t>
+          <t>1425420</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>1373212</t>
+          <t>1444182</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>92,34%</t>
+          <t>92,92%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>91,63%</t>
+          <t>92,33%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>92,97%</t>
+          <t>93,55%</t>
         </is>
       </c>
     </row>
@@ -2216,32 +2216,32 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>45279</t>
+          <t>44941</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>39825</t>
+          <t>39480</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>52559</t>
+          <t>51381</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>6,38%</t>
+          <t>6,11%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>5,61%</t>
+          <t>5,37%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>7,4%</t>
+          <t>6,99%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2251,32 +2251,32 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>46710</t>
+          <t>45034</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>41077</t>
+          <t>39625</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>53979</t>
+          <t>51268</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>6,09%</t>
+          <t>5,57%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>5,35%</t>
+          <t>4,9%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>7,04%</t>
+          <t>6,34%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -2286,32 +2286,32 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>91989</t>
+          <t>89975</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>83999</t>
+          <t>81726</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>101779</t>
+          <t>98862</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>6,23%</t>
+          <t>5,83%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>5,69%</t>
+          <t>5,29%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>6,89%</t>
+          <t>6,4%</t>
         </is>
       </c>
     </row>
@@ -2329,32 +2329,32 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>9831</t>
+          <t>9118</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>7198</t>
+          <t>7077</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>12581</t>
+          <t>12313</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>1,38%</t>
+          <t>1,24%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>1,01%</t>
+          <t>0,96%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>1,77%</t>
+          <t>1,67%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -2364,32 +2364,32 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>11265</t>
+          <t>10172</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>8596</t>
+          <t>7855</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>14597</t>
+          <t>13147</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>1,47%</t>
+          <t>1,26%</t>
         </is>
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>1,12%</t>
+          <t>0,97%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>1,9%</t>
+          <t>1,63%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
@@ -2399,32 +2399,32 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>21095</t>
+          <t>19290</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>17347</t>
+          <t>15843</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>26209</t>
+          <t>23439</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
         <is>
-          <t>1,43%</t>
+          <t>1,25%</t>
         </is>
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>1,17%</t>
+          <t>1,03%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>1,77%</t>
+          <t>1,52%</t>
         </is>
       </c>
     </row>
@@ -2442,17 +2442,17 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>709959</t>
+          <t>735523</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>709959</t>
+          <t>735523</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>709959</t>
+          <t>735523</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -2477,17 +2477,17 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>767138</t>
+          <t>808268</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>767138</t>
+          <t>808268</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>767138</t>
+          <t>808268</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -2512,17 +2512,17 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>1477097</t>
+          <t>1543791</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>1477097</t>
+          <t>1543791</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>1477097</t>
+          <t>1543791</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -2803,12 +2803,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>183164</t>
+          <t>182581</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>201834</t>
+          <t>201658</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -2818,12 +2818,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>81,5%</t>
+          <t>81,24%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>89,81%</t>
+          <t>89,73%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -2838,12 +2838,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>323390</t>
+          <t>321038</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>345550</t>
+          <t>344306</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -2853,12 +2853,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>83,16%</t>
+          <t>82,55%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>88,86%</t>
+          <t>88,54%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -2873,12 +2873,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>512858</t>
+          <t>514131</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>540823</t>
+          <t>542496</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -2888,12 +2888,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>83,58%</t>
+          <t>83,79%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>88,14%</t>
+          <t>88,41%</t>
         </is>
       </c>
     </row>
@@ -2916,12 +2916,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>13607</t>
+          <t>13615</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>29261</t>
+          <t>28623</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -2931,12 +2931,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>6,05%</t>
+          <t>6,06%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>13,02%</t>
+          <t>12,74%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -2951,12 +2951,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>32912</t>
+          <t>33671</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>52905</t>
+          <t>54675</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -2966,12 +2966,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>8,46%</t>
+          <t>8,66%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>13,6%</t>
+          <t>14,06%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -2986,12 +2986,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>51619</t>
+          <t>50179</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>75529</t>
+          <t>75574</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -3001,12 +3001,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>8,41%</t>
+          <t>8,18%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>12,31%</t>
+          <t>12,32%</t>
         </is>
       </c>
     </row>
@@ -3029,12 +3029,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>5679</t>
+          <t>6054</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>18787</t>
+          <t>19226</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -3044,12 +3044,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>2,53%</t>
+          <t>2,69%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>8,36%</t>
+          <t>8,56%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -3064,12 +3064,12 @@
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>7339</t>
+          <t>7347</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>17023</t>
+          <t>16995</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -3084,7 +3084,7 @@
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>4,38%</t>
+          <t>4,37%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -3099,12 +3099,12 @@
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>15459</t>
+          <t>16493</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>32013</t>
+          <t>32010</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -3114,7 +3114,7 @@
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>2,52%</t>
+          <t>2,69%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
@@ -3259,12 +3259,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1233967</t>
+          <t>1233853</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1327515</t>
+          <t>1329757</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -3274,12 +3274,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>88,09%</t>
+          <t>88,08%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>94,77%</t>
+          <t>94,93%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -3294,12 +3294,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>1210051</t>
+          <t>1211606</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>1299275</t>
+          <t>1301338</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -3309,12 +3309,12 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>87,58%</t>
+          <t>87,69%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>94,04%</t>
+          <t>94,19%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -3329,12 +3329,12 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>2463743</t>
+          <t>2459717</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>2592825</t>
+          <t>2598675</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -3344,12 +3344,12 @@
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>88,55%</t>
+          <t>88,4%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>93,18%</t>
+          <t>93,39%</t>
         </is>
       </c>
     </row>
@@ -3372,12 +3372,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>62655</t>
+          <t>61913</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>139436</t>
+          <t>137887</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -3387,12 +3387,12 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,47%</t>
+          <t>4,42%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>9,95%</t>
+          <t>9,84%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -3407,12 +3407,12 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>60658</t>
+          <t>60119</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>133994</t>
+          <t>133795</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -3422,12 +3422,12 @@
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>4,39%</t>
+          <t>4,35%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>9,7%</t>
+          <t>9,68%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -3442,12 +3442,12 @@
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>149405</t>
+          <t>148646</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>255896</t>
+          <t>260965</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -3457,12 +3457,12 @@
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>5,37%</t>
+          <t>5,34%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>9,2%</t>
+          <t>9,38%</t>
         </is>
       </c>
     </row>
@@ -3485,12 +3485,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>9730</t>
+          <t>10007</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>40604</t>
+          <t>40294</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -3500,12 +3500,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,69%</t>
+          <t>0,71%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>2,9%</t>
+          <t>2,88%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -3520,12 +3520,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>18884</t>
+          <t>17094</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>44948</t>
+          <t>46097</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -3535,12 +3535,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>1,37%</t>
+          <t>1,24%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>3,25%</t>
+          <t>3,34%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -3555,12 +3555,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>34543</t>
+          <t>35581</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>74725</t>
+          <t>75699</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -3570,12 +3570,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>1,24%</t>
+          <t>1,28%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>2,69%</t>
+          <t>2,72%</t>
         </is>
       </c>
     </row>
@@ -3715,12 +3715,12 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>383559</t>
+          <t>384857</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>413173</t>
+          <t>413927</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -3730,12 +3730,12 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>83,89%</t>
+          <t>84,17%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>90,36%</t>
+          <t>90,53%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -3750,12 +3750,12 @@
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>350473</t>
+          <t>349973</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>377036</t>
+          <t>377547</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -3765,12 +3765,12 @@
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>79,68%</t>
+          <t>79,57%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>85,72%</t>
+          <t>85,84%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -3785,12 +3785,12 @@
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>741944</t>
+          <t>741862</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>784507</t>
+          <t>784979</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -3800,12 +3800,12 @@
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>82,71%</t>
+          <t>82,7%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>87,45%</t>
+          <t>87,51%</t>
         </is>
       </c>
     </row>
@@ -3828,12 +3828,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>31135</t>
+          <t>30620</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>57813</t>
+          <t>56814</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -3843,12 +3843,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>6,81%</t>
+          <t>6,7%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>12,64%</t>
+          <t>12,43%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -3863,12 +3863,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>46236</t>
+          <t>46533</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>70668</t>
+          <t>72525</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -3878,12 +3878,12 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>10,51%</t>
+          <t>10,58%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>16,07%</t>
+          <t>16,49%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -3898,12 +3898,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>82853</t>
+          <t>83319</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>119164</t>
+          <t>118781</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -3913,12 +3913,12 @@
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>9,24%</t>
+          <t>9,29%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>13,28%</t>
+          <t>13,24%</t>
         </is>
       </c>
     </row>
@@ -3941,12 +3941,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>7989</t>
+          <t>8131</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>25261</t>
+          <t>25326</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -3956,12 +3956,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>1,75%</t>
+          <t>1,78%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>5,52%</t>
+          <t>5,54%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -3976,12 +3976,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>11704</t>
+          <t>12138</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>25561</t>
+          <t>26100</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -3991,12 +3991,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>2,66%</t>
+          <t>2,76%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>5,81%</t>
+          <t>5,93%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -4011,12 +4011,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>23201</t>
+          <t>23200</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>44193</t>
+          <t>45271</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -4031,7 +4031,7 @@
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>4,93%</t>
+          <t>5,05%</t>
         </is>
       </c>
     </row>
@@ -4171,12 +4171,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1821400</t>
+          <t>1821401</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1939104</t>
+          <t>1939484</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -4191,7 +4191,7 @@
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>93,1%</t>
+          <t>93,12%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -4206,12 +4206,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>1902702</t>
+          <t>1906522</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>2016944</t>
+          <t>2028449</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -4221,12 +4221,12 @@
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>86,08%</t>
+          <t>86,25%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>91,25%</t>
+          <t>91,77%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -4241,12 +4241,12 @@
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>3742899</t>
+          <t>3743671</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>3897642</t>
+          <t>3911462</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
@@ -4256,12 +4256,12 @@
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>87,18%</t>
+          <t>87,2%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>90,79%</t>
+          <t>91,11%</t>
         </is>
       </c>
     </row>
@@ -4284,12 +4284,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>107406</t>
+          <t>115417</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>203553</t>
+          <t>205425</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -4299,12 +4299,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>5,16%</t>
+          <t>5,54%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>9,77%</t>
+          <t>9,86%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -4319,12 +4319,12 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>150548</t>
+          <t>143075</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>240662</t>
+          <t>236948</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -4334,12 +4334,12 @@
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>6,81%</t>
+          <t>6,47%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>10,89%</t>
+          <t>10,72%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -4354,12 +4354,12 @@
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>303709</t>
+          <t>298997</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>429775</t>
+          <t>429583</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -4369,7 +4369,7 @@
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>7,07%</t>
+          <t>6,96%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
@@ -4397,12 +4397,12 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>30482</t>
+          <t>30368</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>68717</t>
+          <t>70874</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -4417,7 +4417,7 @@
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>3,3%</t>
+          <t>3,4%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -4432,12 +4432,12 @@
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>44372</t>
+          <t>42909</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>76931</t>
+          <t>76244</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -4447,12 +4447,12 @@
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>2,01%</t>
+          <t>1,94%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>3,48%</t>
+          <t>3,45%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
@@ -4467,12 +4467,12 @@
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>85064</t>
+          <t>83828</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>135874</t>
+          <t>137189</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -4482,12 +4482,12 @@
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>1,98%</t>
+          <t>1,95%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>3,16%</t>
+          <t>3,2%</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/PER_CONT_AIRE-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/PER_CONT_AIRE-Estudios-trans_orig.xlsx
@@ -7,9 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C.Valenciana" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C.Valenciana" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -545,7 +545,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Percepción contaminación atmosférica en País Vasco (tasa de respuesta: 100,0%)</t>
+          <t>Percepción contaminación atmosférica en Andalucia (tasa de respuesta: 99,04%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -730,107 +730,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>475</t>
+          <t>247</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>77057</t>
+          <t>213856</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>74808</t>
+          <t>202023</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>78721</t>
+          <t>224669</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>93,15%</t>
+          <t>84,94%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>90,43%</t>
+          <t>80,24%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>95,16%</t>
+          <t>89,23%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>711</t>
+          <t>588</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>110622</t>
+          <t>365080</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>108311</t>
+          <t>350003</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>112726</t>
+          <t>374690</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>93,84%</t>
+          <t>86,09%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>91,87%</t>
+          <t>82,54%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>95,62%</t>
+          <t>88,36%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>1186</t>
+          <t>835</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>187679</t>
+          <t>578936</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>184849</t>
+          <t>563336</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>190422</t>
+          <t>594800</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>93,55%</t>
+          <t>85,66%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>92,14%</t>
+          <t>83,35%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>94,92%</t>
+          <t>88,01%</t>
         </is>
       </c>
     </row>
@@ -843,107 +843,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>28</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4542</t>
+          <t>25410</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3035</t>
+          <t>17326</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>6744</t>
+          <t>36335</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>5,49%</t>
+          <t>10,09%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,67%</t>
+          <t>6,88%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>8,15%</t>
+          <t>14,43%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>72</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>5790</t>
+          <t>45862</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>3984</t>
+          <t>36816</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>7902</t>
+          <t>59096</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>4,91%</t>
+          <t>10,81%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>3,38%</t>
+          <t>8,68%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>6,7%</t>
+          <t>13,94%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>100</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>10332</t>
+          <t>71272</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>7928</t>
+          <t>57550</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>12948</t>
+          <t>86636</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>5,15%</t>
+          <t>10,55%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>3,95%</t>
+          <t>8,52%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>6,45%</t>
+          <t>12,82%</t>
         </is>
       </c>
     </row>
@@ -956,107 +956,107 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1125</t>
+          <t>12519</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>432</t>
+          <t>6648</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2321</t>
+          <t>21120</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>1,36%</t>
+          <t>4,97%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,52%</t>
+          <t>2,64%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>2,81%</t>
+          <t>8,39%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>1478</t>
+          <t>13123</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>734</t>
+          <t>8321</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>2877</t>
+          <t>19168</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>1,25%</t>
+          <t>3,09%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>0,62%</t>
+          <t>1,96%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>2,44%</t>
+          <t>4,52%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>33</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>2603</t>
+          <t>25642</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>1585</t>
+          <t>18338</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>4022</t>
+          <t>35430</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
         <is>
-          <t>1,3%</t>
+          <t>3,79%</t>
         </is>
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>0,79%</t>
+          <t>2,71%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>2,0%</t>
+          <t>5,24%</t>
         </is>
       </c>
     </row>
@@ -1069,22 +1069,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>508</t>
+          <t>287</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>82724</t>
+          <t>251785</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>82724</t>
+          <t>251785</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>82724</t>
+          <t>251785</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -1104,22 +1104,22 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>758</t>
+          <t>681</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>117890</t>
+          <t>424065</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>117890</t>
+          <t>424065</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>117890</t>
+          <t>424065</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1139,22 +1139,22 @@
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>1266</t>
+          <t>968</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>200614</t>
+          <t>675851</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>200614</t>
+          <t>675851</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>200614</t>
+          <t>675851</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -1186,107 +1186,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2460</t>
+          <t>981</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>433203</t>
+          <t>1134423</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>428730</t>
+          <t>1105813</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>438462</t>
+          <t>1157748</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>92,52%</t>
+          <t>88,65%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>91,57%</t>
+          <t>86,41%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>93,65%</t>
+          <t>90,47%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>2343</t>
+          <t>1441</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>418422</t>
+          <t>1108104</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>413641</t>
+          <t>1082753</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>423403</t>
+          <t>1129685</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>93,21%</t>
+          <t>87,73%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>92,14%</t>
+          <t>85,72%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>94,32%</t>
+          <t>89,43%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>4803</t>
+          <t>2422</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>851624</t>
+          <t>2242527</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>844775</t>
+          <t>2203631</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>858727</t>
+          <t>2274631</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>92,86%</t>
+          <t>88,19%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>92,11%</t>
+          <t>86,66%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>93,63%</t>
+          <t>89,45%</t>
         </is>
       </c>
     </row>
@@ -1299,107 +1299,107 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>109</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>28882</t>
+          <t>121661</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>24299</t>
+          <t>101768</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>33714</t>
+          <t>147767</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>6,17%</t>
+          <t>9,51%</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,19%</t>
+          <t>7,95%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>7,2%</t>
+          <t>11,55%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>149</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>23759</t>
+          <t>121931</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>19263</t>
+          <t>102275</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>28290</t>
+          <t>144169</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>5,29%</t>
+          <t>9,65%</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>4,29%</t>
+          <t>8,1%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>6,3%</t>
+          <t>11,41%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>296</t>
+          <t>258</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>52641</t>
+          <t>243592</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>46460</t>
+          <t>214959</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>58961</t>
+          <t>277010</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
         <is>
-          <t>5,74%</t>
+          <t>9,58%</t>
         </is>
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>5,07%</t>
+          <t>8,45%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>6,43%</t>
+          <t>10,89%</t>
         </is>
       </c>
     </row>
@@ -1412,107 +1412,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>6130</t>
+          <t>23577</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>4331</t>
+          <t>13533</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>8516</t>
+          <t>39088</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>1,31%</t>
+          <t>1,84%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,92%</t>
+          <t>1,06%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>1,82%</t>
+          <t>3,05%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>40</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>6743</t>
+          <t>33119</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>4885</t>
+          <t>22836</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>9466</t>
+          <t>45887</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>1,5%</t>
+          <t>2,62%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>1,09%</t>
+          <t>1,81%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>2,11%</t>
+          <t>3,63%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>56</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>12873</t>
+          <t>56696</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>10193</t>
+          <t>42666</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>16154</t>
+          <t>76542</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>1,4%</t>
+          <t>2,23%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>1,11%</t>
+          <t>1,68%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>1,76%</t>
+          <t>3,01%</t>
         </is>
       </c>
     </row>
@@ -1525,22 +1525,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2656</t>
+          <t>1106</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>468215</t>
+          <t>1279661</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>468215</t>
+          <t>1279661</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>468215</t>
+          <t>1279661</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1560,22 +1560,22 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2517</t>
+          <t>1630</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>448923</t>
+          <t>1263154</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>448923</t>
+          <t>1263154</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>448923</t>
+          <t>1263154</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1595,22 +1595,22 @@
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>5173</t>
+          <t>2736</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>917137</t>
+          <t>2542815</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>917137</t>
+          <t>2542815</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>917137</t>
+          <t>2542815</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -1642,107 +1642,107 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>845</t>
+          <t>422</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>171204</t>
+          <t>445145</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>167735</t>
+          <t>427290</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>174301</t>
+          <t>459225</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>92,75%</t>
+          <t>87,76%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>90,87%</t>
+          <t>84,24%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>94,43%</t>
+          <t>90,54%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>1115</t>
+          <t>541</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>224018</t>
+          <t>408248</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>219684</t>
+          <t>391894</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>227500</t>
+          <t>421520</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>92,78%</t>
+          <t>83,32%</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>90,98%</t>
+          <t>79,98%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>94,22%</t>
+          <t>86,03%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>1960</t>
+          <t>963</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>395222</t>
+          <t>853393</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>389751</t>
+          <t>830750</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>399636</t>
+          <t>874939</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t>92,77%</t>
+          <t>85,58%</t>
         </is>
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>91,48%</t>
+          <t>83,31%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>93,8%</t>
+          <t>87,74%</t>
         </is>
       </c>
     </row>
@@ -1755,107 +1755,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>47</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>11517</t>
+          <t>45691</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>8471</t>
+          <t>33194</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>15066</t>
+          <t>61541</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>6,24%</t>
+          <t>9,01%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>4,59%</t>
+          <t>6,54%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>8,16%</t>
+          <t>12,13%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>89</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>15485</t>
+          <t>61708</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>12467</t>
+          <t>50448</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>19694</t>
+          <t>77136</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>6,41%</t>
+          <t>12,59%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>5,16%</t>
+          <t>10,3%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>8,16%</t>
+          <t>15,74%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>136</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>27002</t>
+          <t>107399</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>22518</t>
+          <t>88974</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>32357</t>
+          <t>127968</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>6,34%</t>
+          <t>10,77%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>5,29%</t>
+          <t>8,92%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>7,59%</t>
+          <t>12,83%</t>
         </is>
       </c>
     </row>
@@ -1868,107 +1868,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>1863</t>
+          <t>16374</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>1020</t>
+          <t>8944</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>3474</t>
+          <t>27728</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>1,01%</t>
+          <t>3,23%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,55%</t>
+          <t>1,76%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>1,88%</t>
+          <t>5,47%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>29</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>1952</t>
+          <t>20007</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>1040</t>
+          <t>14378</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>3809</t>
+          <t>29495</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,81%</t>
+          <t>4,08%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>0,43%</t>
+          <t>2,93%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>1,58%</t>
+          <t>6,02%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>44</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>3815</t>
+          <t>36382</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>2406</t>
+          <t>26552</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>5881</t>
+          <t>51431</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>0,9%</t>
+          <t>3,65%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>0,56%</t>
+          <t>2,66%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>1,38%</t>
+          <t>5,16%</t>
         </is>
       </c>
     </row>
@@ -1981,22 +1981,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>913</t>
+          <t>484</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>184584</t>
+          <t>507211</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>184584</t>
+          <t>507211</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>184584</t>
+          <t>507211</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2016,22 +2016,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>1209</t>
+          <t>659</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>241455</t>
+          <t>489963</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>241455</t>
+          <t>489963</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>241455</t>
+          <t>489963</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2051,22 +2051,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>2122</t>
+          <t>1143</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>426039</t>
+          <t>997174</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>426039</t>
+          <t>997174</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>426039</t>
+          <t>997174</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2098,107 +2098,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>3780</t>
+          <t>1650</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>681464</t>
+          <t>1793425</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>674840</t>
+          <t>1758154</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>687372</t>
+          <t>1823650</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>92,65%</t>
+          <t>87,97%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>91,75%</t>
+          <t>86,24%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>93,45%</t>
+          <t>89,45%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>4169</t>
+          <t>2570</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>753062</t>
+          <t>1881432</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>746489</t>
+          <t>1848827</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>758987</t>
+          <t>1907693</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>93,17%</t>
+          <t>86,42%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>92,36%</t>
+          <t>84,92%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>93,9%</t>
+          <t>87,62%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>7949</t>
+          <t>4220</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>1434526</t>
+          <t>3674857</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>1425420</t>
+          <t>3628880</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>1444182</t>
+          <t>3718642</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>92,92%</t>
+          <t>87,17%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>92,33%</t>
+          <t>86,08%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>93,55%</t>
+          <t>88,21%</t>
         </is>
       </c>
     </row>
@@ -2211,107 +2211,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>184</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>44941</t>
+          <t>192762</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>39480</t>
+          <t>166685</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>51381</t>
+          <t>225386</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>6,11%</t>
+          <t>9,46%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>5,37%</t>
+          <t>8,18%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>6,99%</t>
+          <t>11,06%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>310</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>45034</t>
+          <t>229501</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>39625</t>
+          <t>204753</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>51268</t>
+          <t>257211</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>5,57%</t>
+          <t>10,54%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>4,9%</t>
+          <t>9,4%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>6,34%</t>
+          <t>11,81%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>498</t>
+          <t>494</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>89975</t>
+          <t>422263</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>81726</t>
+          <t>383558</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>98862</t>
+          <t>462407</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>5,83%</t>
+          <t>10,02%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>5,29%</t>
+          <t>9,1%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>6,4%</t>
+          <t>10,97%</t>
         </is>
       </c>
     </row>
@@ -2324,107 +2324,107 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>43</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>9118</t>
+          <t>52471</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>7077</t>
+          <t>38457</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>12313</t>
+          <t>73788</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>1,24%</t>
+          <t>2,57%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>0,96%</t>
+          <t>1,89%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>1,67%</t>
+          <t>3,62%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>90</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>10172</t>
+          <t>66249</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>7855</t>
+          <t>52264</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>13147</t>
+          <t>83163</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>1,26%</t>
+          <t>3,04%</t>
         </is>
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>0,97%</t>
+          <t>2,4%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>1,63%</t>
+          <t>3,82%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>133</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>19290</t>
+          <t>118720</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>15843</t>
+          <t>100381</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>23439</t>
+          <t>142912</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
         <is>
-          <t>1,25%</t>
+          <t>2,82%</t>
         </is>
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>1,03%</t>
+          <t>2,38%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>1,52%</t>
+          <t>3,39%</t>
         </is>
       </c>
     </row>
@@ -2437,22 +2437,22 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>4077</t>
+          <t>1877</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>735523</t>
+          <t>2038658</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>735523</t>
+          <t>2038658</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>735523</t>
+          <t>2038658</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -2472,22 +2472,22 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>4484</t>
+          <t>2970</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>808268</t>
+          <t>2177182</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>808268</t>
+          <t>2177182</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>808268</t>
+          <t>2177182</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -2507,22 +2507,22 @@
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>8561</t>
+          <t>4847</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>1543791</t>
+          <t>4215840</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>1543791</t>
+          <t>4215840</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>1543791</t>
+          <t>4215840</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -2608,7 +2608,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Percepción contaminación atmosférica en Andalucia (tasa de respuesta: 99,04%)</t>
+          <t>Percepción contaminación atmosférica en C.Valenciana (tasa de respuesta: 93,59%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -2793,107 +2793,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>531</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>193050</t>
+          <t>205037</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>182581</t>
+          <t>200298</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>201658</t>
+          <t>207624</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>85,9%</t>
+          <t>97,34%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>81,24%</t>
+          <t>95,09%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>89,73%</t>
+          <t>98,56%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>588</t>
+          <t>573</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>335022</t>
+          <t>239347</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>321038</t>
+          <t>233586</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>344306</t>
+          <t>242902</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>86,15%</t>
+          <t>96,03%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>82,55%</t>
+          <t>93,72%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>88,54%</t>
+          <t>97,46%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>835</t>
+          <t>1104</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>528072</t>
+          <t>444384</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>514131</t>
+          <t>437299</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>542496</t>
+          <t>449326</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>86,06%</t>
+          <t>96,63%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>83,79%</t>
+          <t>95,09%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>88,41%</t>
+          <t>97,7%</t>
         </is>
       </c>
     </row>
@@ -2906,107 +2906,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>20301</t>
+          <t>4765</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>13615</t>
+          <t>2336</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>28623</t>
+          <t>9402</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>9,03%</t>
+          <t>2,26%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>6,06%</t>
+          <t>1,11%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>12,74%</t>
+          <t>4,46%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>18</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>42317</t>
+          <t>8647</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>33671</t>
+          <t>5147</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>54675</t>
+          <t>13870</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>10,88%</t>
+          <t>3,47%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>8,66%</t>
+          <t>2,06%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>14,06%</t>
+          <t>5,57%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>30</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>62618</t>
+          <t>13412</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>50179</t>
+          <t>9060</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>75574</t>
+          <t>20500</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>10,2%</t>
+          <t>2,92%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>8,18%</t>
+          <t>1,97%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>12,32%</t>
+          <t>4,46%</t>
         </is>
       </c>
     </row>
@@ -3019,107 +3019,107 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>11380</t>
+          <t>847</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>6054</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>19226</t>
+          <t>3071</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>5,06%</t>
+          <t>0,4%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>2,69%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>8,56%</t>
+          <t>1,46%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>11546</t>
+          <t>1245</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>7347</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>16995</t>
+          <t>4733</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>2,97%</t>
+          <t>0,5%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>1,89%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>4,37%</t>
+          <t>1,9%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>4</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>22926</t>
+          <t>2092</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>16493</t>
+          <t>508</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>32010</t>
+          <t>5945</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
         <is>
-          <t>3,74%</t>
+          <t>0,45%</t>
         </is>
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>2,69%</t>
+          <t>0,11%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>5,22%</t>
+          <t>1,29%</t>
         </is>
       </c>
     </row>
@@ -3132,22 +3132,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>545</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>224731</t>
+          <t>210649</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>224731</t>
+          <t>210649</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>224731</t>
+          <t>210649</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -3167,22 +3167,22 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>681</t>
+          <t>593</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>388885</t>
+          <t>249240</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>388885</t>
+          <t>249240</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>388885</t>
+          <t>249240</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -3202,22 +3202,22 @@
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>968</t>
+          <t>1138</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>613616</t>
+          <t>459889</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>613616</t>
+          <t>459889</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>613616</t>
+          <t>459889</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -3249,107 +3249,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>981</t>
+          <t>1483</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1273063</t>
+          <t>769046</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1233853</t>
+          <t>760969</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1329757</t>
+          <t>775183</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>90,88%</t>
+          <t>96,72%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>88,08%</t>
+          <t>95,7%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>94,93%</t>
+          <t>97,49%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>1441</t>
+          <t>1323</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>1246559</t>
+          <t>739292</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>1211606</t>
+          <t>729392</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>1301338</t>
+          <t>746329</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>90,22%</t>
+          <t>96,62%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>87,69%</t>
+          <t>95,33%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>94,19%</t>
+          <t>97,54%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>2422</t>
+          <t>2806</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>2519622</t>
+          <t>1508337</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>2459717</t>
+          <t>1496449</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>2598675</t>
+          <t>1518425</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>90,55%</t>
+          <t>96,67%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>88,4%</t>
+          <t>95,91%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>93,39%</t>
+          <t>97,32%</t>
         </is>
       </c>
     </row>
@@ -3362,107 +3362,107 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>51</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>105561</t>
+          <t>24583</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>61913</t>
+          <t>18381</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>137887</t>
+          <t>32343</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>7,54%</t>
+          <t>3,09%</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,42%</t>
+          <t>2,31%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>9,84%</t>
+          <t>4,07%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>42</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>104210</t>
+          <t>25125</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>60119</t>
+          <t>18542</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>133795</t>
+          <t>34797</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>7,54%</t>
+          <t>3,28%</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>4,35%</t>
+          <t>2,42%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>9,68%</t>
+          <t>4,55%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>93</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>209772</t>
+          <t>49708</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>148646</t>
+          <t>39558</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>260965</t>
+          <t>61260</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
         <is>
-          <t>7,54%</t>
+          <t>3,19%</t>
         </is>
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>5,34%</t>
+          <t>2,54%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>9,38%</t>
+          <t>3,93%</t>
         </is>
       </c>
     </row>
@@ -3475,107 +3475,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>22164</t>
+          <t>1517</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>10007</t>
+          <t>421</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>40294</t>
+          <t>4136</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>1,58%</t>
+          <t>0,19%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,71%</t>
+          <t>0,05%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>2,88%</t>
+          <t>0,52%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>30903</t>
+          <t>701</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>17094</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>46097</t>
+          <t>3498</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>2,24%</t>
+          <t>0,09%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>1,24%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>3,34%</t>
+          <t>0,46%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>4</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>53067</t>
+          <t>2219</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>35581</t>
+          <t>696</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>75699</t>
+          <t>5546</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>1,91%</t>
+          <t>0,14%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>1,28%</t>
+          <t>0,04%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>2,72%</t>
+          <t>0,36%</t>
         </is>
       </c>
     </row>
@@ -3588,22 +3588,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1106</t>
+          <t>1537</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1400788</t>
+          <t>795146</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1400788</t>
+          <t>795146</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1400788</t>
+          <t>795146</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -3623,22 +3623,22 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1630</t>
+          <t>1366</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1381673</t>
+          <t>765118</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>1381673</t>
+          <t>765118</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>1381673</t>
+          <t>765118</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -3658,22 +3658,22 @@
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>2736</t>
+          <t>2903</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>2782461</t>
+          <t>1560264</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>2782461</t>
+          <t>1560264</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>2782461</t>
+          <t>1560264</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -3705,107 +3705,107 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>422</t>
+          <t>622</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>400233</t>
+          <t>358013</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>384857</t>
+          <t>351581</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>413927</t>
+          <t>363342</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>87,53%</t>
+          <t>96,62%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>84,17%</t>
+          <t>94,89%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>90,53%</t>
+          <t>98,06%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>541</t>
+          <t>658</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>364707</t>
+          <t>390505</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>349973</t>
+          <t>383356</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>377547</t>
+          <t>395429</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>82,92%</t>
+          <t>96,38%</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>79,57%</t>
+          <t>94,62%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>85,84%</t>
+          <t>97,6%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>963</t>
+          <t>1280</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>764939</t>
+          <t>748519</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>741862</t>
+          <t>739471</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>784979</t>
+          <t>756095</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t>85,27%</t>
+          <t>96,5%</t>
         </is>
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>82,7%</t>
+          <t>95,33%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>87,51%</t>
+          <t>97,47%</t>
         </is>
       </c>
     </row>
@@ -3818,107 +3818,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>42366</t>
+          <t>12510</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>30620</t>
+          <t>7181</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>56814</t>
+          <t>18942</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>9,27%</t>
+          <t>3,38%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>6,7%</t>
+          <t>1,94%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>12,43%</t>
+          <t>5,11%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>21</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>57650</t>
+          <t>13644</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>46533</t>
+          <t>8734</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>72525</t>
+          <t>20799</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>13,11%</t>
+          <t>3,37%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>10,58%</t>
+          <t>2,16%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>16,49%</t>
+          <t>5,13%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>136</t>
+          <t>42</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>100016</t>
+          <t>26154</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>83319</t>
+          <t>18434</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>118781</t>
+          <t>34976</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>11,15%</t>
+          <t>3,37%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>9,29%</t>
+          <t>2,38%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>13,24%</t>
+          <t>4,51%</t>
         </is>
       </c>
     </row>
@@ -3931,107 +3931,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>14635</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>8131</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>25326</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>3,2%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>1,78%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>5,54%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>17476</t>
+          <t>1022</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>12138</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>26100</t>
+          <t>3901</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>3,97%</t>
+          <t>0,25%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>2,76%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>5,93%</t>
+          <t>0,96%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>2</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>32111</t>
+          <t>1022</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>23200</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>45271</t>
+          <t>4067</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>3,58%</t>
+          <t>0,13%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>2,59%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>5,05%</t>
+          <t>0,52%</t>
         </is>
       </c>
     </row>
@@ -4044,22 +4044,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>484</t>
+          <t>643</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>457234</t>
+          <t>370523</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>457234</t>
+          <t>370523</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>457234</t>
+          <t>370523</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -4079,22 +4079,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>659</t>
+          <t>681</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>439833</t>
+          <t>405171</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>439833</t>
+          <t>405171</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>439833</t>
+          <t>405171</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -4114,22 +4114,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>1143</t>
+          <t>1324</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>897066</t>
+          <t>775695</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>897066</t>
+          <t>775695</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>897066</t>
+          <t>775695</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -4161,107 +4161,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1650</t>
+          <t>2636</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1866345</t>
+          <t>1332096</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1821401</t>
+          <t>1320400</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1939484</t>
+          <t>1340512</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>89,61%</t>
+          <t>96,79%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>87,45%</t>
+          <t>95,94%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>93,12%</t>
+          <t>97,4%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>2570</t>
+          <t>2554</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>1946288</t>
+          <t>1369145</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>1906522</t>
+          <t>1356176</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>2028449</t>
+          <t>1378505</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>88,05%</t>
+          <t>96,45%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>86,25%</t>
+          <t>95,54%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>91,77%</t>
+          <t>97,11%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>4220</t>
+          <t>5190</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>3812633</t>
+          <t>2701241</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>3743671</t>
+          <t>2684615</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>3911462</t>
+          <t>2714492</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>88,81%</t>
+          <t>96,62%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>87,2%</t>
+          <t>96,02%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>91,11%</t>
+          <t>97,09%</t>
         </is>
       </c>
     </row>
@@ -4274,107 +4274,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>84</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>168229</t>
+          <t>41858</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>115417</t>
+          <t>33306</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>205425</t>
+          <t>53946</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>8,08%</t>
+          <t>3,04%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>5,54%</t>
+          <t>2,42%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>9,86%</t>
+          <t>3,92%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>310</t>
+          <t>81</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>204177</t>
+          <t>47416</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>143075</t>
+          <t>38672</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>236948</t>
+          <t>59468</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>9,24%</t>
+          <t>3,34%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>6,47%</t>
+          <t>2,72%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>10,72%</t>
+          <t>4,19%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>494</t>
+          <t>165</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>372406</t>
+          <t>89275</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>298997</t>
+          <t>76281</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>429583</t>
+          <t>105806</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>8,67%</t>
+          <t>3,19%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>6,96%</t>
+          <t>2,73%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>10,01%</t>
+          <t>3,78%</t>
         </is>
       </c>
     </row>
@@ -4387,107 +4387,107 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>48179</t>
+          <t>2364</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>30368</t>
+          <t>863</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>70874</t>
+          <t>5281</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>2,31%</t>
+          <t>0,17%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>1,46%</t>
+          <t>0,06%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>3,4%</t>
+          <t>0,38%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>59925</t>
+          <t>2968</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>42909</t>
+          <t>1002</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>76244</t>
+          <t>6859</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>2,71%</t>
+          <t>0,21%</t>
         </is>
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>1,94%</t>
+          <t>0,07%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>3,45%</t>
+          <t>0,48%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>10</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>108104</t>
+          <t>5333</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>83828</t>
+          <t>2686</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>137189</t>
+          <t>9569</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
         <is>
-          <t>2,52%</t>
+          <t>0,19%</t>
         </is>
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>1,95%</t>
+          <t>0,1%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>3,2%</t>
+          <t>0,34%</t>
         </is>
       </c>
     </row>
@@ -4500,22 +4500,22 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>1877</t>
+          <t>2725</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>2082753</t>
+          <t>1376318</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>2082753</t>
+          <t>1376318</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>2082753</t>
+          <t>1376318</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -4535,22 +4535,22 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>2970</t>
+          <t>2640</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>2210390</t>
+          <t>1419530</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>2210390</t>
+          <t>1419530</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>2210390</t>
+          <t>1419530</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -4570,22 +4570,22 @@
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>4847</t>
+          <t>5365</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>4293143</t>
+          <t>2795848</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>4293143</t>
+          <t>2795848</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>4293143</t>
+          <t>2795848</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -4671,7 +4671,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Percepción contaminación atmosférica en C.Valenciana (tasa de respuesta: 93,59%)</t>
+          <t>Percepción contaminación atmosférica en País Vasco (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -4856,107 +4856,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>531</t>
+          <t>475</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>205037</t>
+          <t>77057</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>200298</t>
+          <t>74808</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>207624</t>
+          <t>78721</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>97,34%</t>
+          <t>93,15%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>95,09%</t>
+          <t>90,43%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>98,56%</t>
+          <t>95,16%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>573</t>
+          <t>711</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>239347</t>
+          <t>110622</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>233586</t>
+          <t>108311</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>242902</t>
+          <t>112726</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>96,03%</t>
+          <t>93,84%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>93,72%</t>
+          <t>91,87%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>97,46%</t>
+          <t>95,62%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>1104</t>
+          <t>1186</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>444384</t>
+          <t>187679</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>437299</t>
+          <t>184849</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>449326</t>
+          <t>190422</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>96,63%</t>
+          <t>93,55%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>95,09%</t>
+          <t>92,14%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>97,7%</t>
+          <t>94,92%</t>
         </is>
       </c>
     </row>
@@ -4969,107 +4969,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>26</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4765</t>
+          <t>4542</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2336</t>
+          <t>3035</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>9402</t>
+          <t>6744</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,26%</t>
+          <t>5,49%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,11%</t>
+          <t>3,67%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>4,46%</t>
+          <t>8,15%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>36</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>8647</t>
+          <t>5790</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>5147</t>
+          <t>3984</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>13870</t>
+          <t>7902</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>3,47%</t>
+          <t>4,91%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>2,06%</t>
+          <t>3,38%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>5,57%</t>
+          <t>6,7%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>62</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>13412</t>
+          <t>10332</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>9060</t>
+          <t>7928</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>20500</t>
+          <t>12948</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>2,92%</t>
+          <t>5,15%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>1,97%</t>
+          <t>3,95%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>4,46%</t>
+          <t>6,45%</t>
         </is>
       </c>
     </row>
@@ -5082,107 +5082,107 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>847</t>
+          <t>1125</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>432</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>3071</t>
+          <t>2321</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,4%</t>
+          <t>1,36%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,52%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>1,46%</t>
+          <t>2,81%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>11</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>1245</t>
+          <t>1478</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>734</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>4733</t>
+          <t>2877</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,5%</t>
+          <t>1,25%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,62%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>1,9%</t>
+          <t>2,44%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>18</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>2092</t>
+          <t>2603</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>508</t>
+          <t>1585</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>5945</t>
+          <t>4022</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
         <is>
-          <t>0,45%</t>
+          <t>1,3%</t>
         </is>
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>0,11%</t>
+          <t>0,79%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>1,29%</t>
+          <t>2,0%</t>
         </is>
       </c>
     </row>
@@ -5195,22 +5195,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>545</t>
+          <t>508</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>210649</t>
+          <t>82724</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>210649</t>
+          <t>82724</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>210649</t>
+          <t>82724</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -5230,22 +5230,22 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>593</t>
+          <t>758</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>249240</t>
+          <t>117890</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>249240</t>
+          <t>117890</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>249240</t>
+          <t>117890</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -5265,22 +5265,22 @@
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>1138</t>
+          <t>1266</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>459889</t>
+          <t>200614</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>459889</t>
+          <t>200614</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>459889</t>
+          <t>200614</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -5312,107 +5312,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1483</t>
+          <t>2460</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>769046</t>
+          <t>433203</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>760969</t>
+          <t>428730</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>775183</t>
+          <t>438462</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>96,72%</t>
+          <t>92,52%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>95,7%</t>
+          <t>91,57%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>97,49%</t>
+          <t>93,65%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>1323</t>
+          <t>2343</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>739292</t>
+          <t>418422</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>729392</t>
+          <t>413641</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>746329</t>
+          <t>423403</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>96,62%</t>
+          <t>93,21%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>95,33%</t>
+          <t>92,14%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>97,54%</t>
+          <t>94,32%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>2806</t>
+          <t>4803</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>1508337</t>
+          <t>851624</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>1496449</t>
+          <t>844775</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>1518425</t>
+          <t>858727</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>96,67%</t>
+          <t>92,86%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>95,91%</t>
+          <t>92,11%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>97,32%</t>
+          <t>93,63%</t>
         </is>
       </c>
     </row>
@@ -5425,107 +5425,107 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>161</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>24583</t>
+          <t>28882</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>18381</t>
+          <t>24299</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>32343</t>
+          <t>33714</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,09%</t>
+          <t>6,17%</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,31%</t>
+          <t>5,19%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>4,07%</t>
+          <t>7,2%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>135</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>25125</t>
+          <t>23759</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>18542</t>
+          <t>19263</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>34797</t>
+          <t>28290</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>3,28%</t>
+          <t>5,29%</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>2,42%</t>
+          <t>4,29%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>4,55%</t>
+          <t>6,3%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>296</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>49708</t>
+          <t>52641</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>39558</t>
+          <t>46460</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>61260</t>
+          <t>58961</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
         <is>
-          <t>3,19%</t>
+          <t>5,74%</t>
         </is>
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>2,54%</t>
+          <t>5,07%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>3,93%</t>
+          <t>6,43%</t>
         </is>
       </c>
     </row>
@@ -5538,107 +5538,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>35</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1517</t>
+          <t>6130</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>421</t>
+          <t>4331</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>4136</t>
+          <t>8516</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,19%</t>
+          <t>1,31%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,05%</t>
+          <t>0,92%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,52%</t>
+          <t>1,82%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>39</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>701</t>
+          <t>6743</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4885</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>3498</t>
+          <t>9466</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,09%</t>
+          <t>1,5%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,09%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>0,46%</t>
+          <t>2,11%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>74</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>2219</t>
+          <t>12873</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>696</t>
+          <t>10193</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>5546</t>
+          <t>16154</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>0,14%</t>
+          <t>1,4%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>0,04%</t>
+          <t>1,11%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>0,36%</t>
+          <t>1,76%</t>
         </is>
       </c>
     </row>
@@ -5651,22 +5651,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1537</t>
+          <t>2656</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>795146</t>
+          <t>468215</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>795146</t>
+          <t>468215</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>795146</t>
+          <t>468215</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -5686,22 +5686,22 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1366</t>
+          <t>2517</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>765118</t>
+          <t>448923</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>765118</t>
+          <t>448923</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>765118</t>
+          <t>448923</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -5721,22 +5721,22 @@
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>2903</t>
+          <t>5173</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>1560264</t>
+          <t>917137</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>1560264</t>
+          <t>917137</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>1560264</t>
+          <t>917137</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -5768,107 +5768,107 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>622</t>
+          <t>845</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>358013</t>
+          <t>171204</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>351581</t>
+          <t>167735</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>363342</t>
+          <t>174301</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>96,62%</t>
+          <t>92,75%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>94,89%</t>
+          <t>90,87%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>98,06%</t>
+          <t>94,43%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>658</t>
+          <t>1115</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>390505</t>
+          <t>224018</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>383356</t>
+          <t>219684</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>395429</t>
+          <t>227500</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>96,38%</t>
+          <t>92,78%</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>94,62%</t>
+          <t>90,98%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>97,6%</t>
+          <t>94,22%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>1280</t>
+          <t>1960</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>748519</t>
+          <t>395222</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>739471</t>
+          <t>389751</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>756095</t>
+          <t>399636</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t>96,5%</t>
+          <t>92,77%</t>
         </is>
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>95,33%</t>
+          <t>91,48%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>97,47%</t>
+          <t>93,8%</t>
         </is>
       </c>
     </row>
@@ -5881,107 +5881,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>58</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>12510</t>
+          <t>11517</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>7181</t>
+          <t>8471</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>18942</t>
+          <t>15066</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,38%</t>
+          <t>6,24%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,94%</t>
+          <t>4,59%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>5,11%</t>
+          <t>8,16%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>82</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>13644</t>
+          <t>15485</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>8734</t>
+          <t>12467</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>20799</t>
+          <t>19694</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>3,37%</t>
+          <t>6,41%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>2,16%</t>
+          <t>5,16%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>5,13%</t>
+          <t>8,16%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>140</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>26154</t>
+          <t>27002</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>18434</t>
+          <t>22518</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>34976</t>
+          <t>32357</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>3,37%</t>
+          <t>6,34%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>2,38%</t>
+          <t>5,29%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>4,51%</t>
+          <t>7,59%</t>
         </is>
       </c>
     </row>
@@ -5994,107 +5994,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1863</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>1020</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>3474</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,01%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,55%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,88%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>12</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>1022</t>
+          <t>1952</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1040</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>3901</t>
+          <t>3809</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,25%</t>
+          <t>0,81%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,43%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>0,96%</t>
+          <t>1,58%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>22</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>1022</t>
+          <t>3815</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2406</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>4067</t>
+          <t>5881</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>0,13%</t>
+          <t>0,9%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,56%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>0,52%</t>
+          <t>1,38%</t>
         </is>
       </c>
     </row>
@@ -6107,22 +6107,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>643</t>
+          <t>913</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>370523</t>
+          <t>184584</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>370523</t>
+          <t>184584</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>370523</t>
+          <t>184584</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -6142,22 +6142,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>681</t>
+          <t>1209</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>405171</t>
+          <t>241455</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>405171</t>
+          <t>241455</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>405171</t>
+          <t>241455</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -6177,22 +6177,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>1324</t>
+          <t>2122</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>775695</t>
+          <t>426039</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>775695</t>
+          <t>426039</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>775695</t>
+          <t>426039</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -6224,107 +6224,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2636</t>
+          <t>3780</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1332096</t>
+          <t>681464</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1320400</t>
+          <t>674840</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1340512</t>
+          <t>687372</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>96,79%</t>
+          <t>92,65%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>95,94%</t>
+          <t>91,75%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>97,4%</t>
+          <t>93,45%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>2554</t>
+          <t>4169</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>1369145</t>
+          <t>753062</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>1356176</t>
+          <t>746489</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>1378505</t>
+          <t>758987</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>96,45%</t>
+          <t>93,17%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>95,54%</t>
+          <t>92,36%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>97,11%</t>
+          <t>93,9%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>5190</t>
+          <t>7949</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>2701241</t>
+          <t>1434526</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>2684615</t>
+          <t>1425420</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>2714492</t>
+          <t>1444182</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>96,62%</t>
+          <t>92,92%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>96,02%</t>
+          <t>92,33%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>97,09%</t>
+          <t>93,55%</t>
         </is>
       </c>
     </row>
@@ -6337,107 +6337,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>245</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>41858</t>
+          <t>44941</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>33306</t>
+          <t>39480</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>53946</t>
+          <t>51381</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>3,04%</t>
+          <t>6,11%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>2,42%</t>
+          <t>5,37%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>3,92%</t>
+          <t>6,99%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>253</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>47416</t>
+          <t>45034</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>38672</t>
+          <t>39625</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>59468</t>
+          <t>51268</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>3,34%</t>
+          <t>5,57%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>2,72%</t>
+          <t>4,9%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>4,19%</t>
+          <t>6,34%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>498</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>89275</t>
+          <t>89975</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>76281</t>
+          <t>81726</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>105806</t>
+          <t>98862</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>3,19%</t>
+          <t>5,83%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>2,73%</t>
+          <t>5,29%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>3,78%</t>
+          <t>6,4%</t>
         </is>
       </c>
     </row>
@@ -6450,107 +6450,107 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>52</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>2364</t>
+          <t>9118</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>863</t>
+          <t>7077</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>5281</t>
+          <t>12313</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>0,17%</t>
+          <t>1,24%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>0,06%</t>
+          <t>0,96%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>0,38%</t>
+          <t>1,67%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>62</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>2968</t>
+          <t>10172</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>1002</t>
+          <t>7855</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>6859</t>
+          <t>13147</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>0,21%</t>
+          <t>1,26%</t>
         </is>
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>0,07%</t>
+          <t>0,97%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>0,48%</t>
+          <t>1,63%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>114</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>5333</t>
+          <t>19290</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>2686</t>
+          <t>15843</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>9569</t>
+          <t>23439</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
         <is>
-          <t>0,19%</t>
+          <t>1,25%</t>
         </is>
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>0,1%</t>
+          <t>1,03%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>0,34%</t>
+          <t>1,52%</t>
         </is>
       </c>
     </row>
@@ -6563,22 +6563,22 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>2725</t>
+          <t>4077</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>1376318</t>
+          <t>735523</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>1376318</t>
+          <t>735523</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>1376318</t>
+          <t>735523</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -6598,22 +6598,22 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>2640</t>
+          <t>4484</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>1419530</t>
+          <t>808268</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>1419530</t>
+          <t>808268</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>1419530</t>
+          <t>808268</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -6633,22 +6633,22 @@
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>5365</t>
+          <t>8561</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>2795848</t>
+          <t>1543791</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>2795848</t>
+          <t>1543791</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>2795848</t>
+          <t>1543791</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
